--- a/quantum histogram.xlsx
+++ b/quantum histogram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d689c4b5882cac9/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{85A86985-2D38-4D5B-BCFB-291F16B5D9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5429473D-8A74-44F2-B2C2-BC76C0917F5C}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{85A86985-2D38-4D5B-BCFB-291F16B5D9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1B47230-E914-49CF-A6F9-EB94B991AB2D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="14860" xr2:uid="{CA2371C7-6B3A-41B8-A3FF-3C9D70541CF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>import time # Import the time module</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>{'error': 'no error', 'error_code': 0, 'result': {'c': [[0], [1]]}}</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -207,10 +210,966 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$4:$N$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E8BB-4933-BBD0-2A7810740799}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="751270671"/>
+        <c:axId val="746899519"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="751270671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="746899519"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="746899519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="751270671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6C58666-F5B4-A507-26F9-486D5409B3E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D39DD92-BA77-4143-B9BD-6EFB30F0B79B}" name="Table1" displayName="Table1" ref="N3:N36" totalsRowShown="0">
+  <autoFilter ref="N3:N36" xr:uid="{6D39DD92-BA77-4143-B9BD-6EFB30F0B79B}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{038FC8E2-8236-401D-939C-648D810806D7}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -248,7 +1207,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -354,7 +1313,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -496,7 +1455,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -504,13 +1463,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5279AC1-2963-40D1-ABC3-5868519CFA97}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N35"/>
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="14" max="14" width="10.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -529,8 +1491,8 @@
       <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="N3">
-        <v>1</v>
+      <c r="N3" t="s">
+        <v>28</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -586,7 +1548,7 @@
         <v>26</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -594,7 +1556,7 @@
         <v>24</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -605,7 +1567,7 @@
         <v>27</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -638,7 +1600,7 @@
         <v>24</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -649,7 +1611,7 @@
         <v>26</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -660,7 +1622,7 @@
         <v>24</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -693,7 +1655,7 @@
         <v>26</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -704,7 +1666,7 @@
         <v>25</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -726,7 +1688,7 @@
         <v>27</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
@@ -737,7 +1699,7 @@
         <v>24</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
@@ -748,7 +1710,7 @@
         <v>26</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
@@ -759,7 +1721,7 @@
         <v>24</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
@@ -770,7 +1732,7 @@
         <v>27</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
@@ -781,7 +1743,7 @@
         <v>25</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
@@ -792,7 +1754,7 @@
         <v>26</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
@@ -803,7 +1765,7 @@
         <v>24</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
@@ -822,7 +1784,7 @@
         <v>27</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
@@ -838,7 +1800,7 @@
         <v>24</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
@@ -846,7 +1808,7 @@
         <v>27</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="7:14" x14ac:dyDescent="0.35">
@@ -873,7 +1835,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>